--- a/studies/compareModelsDetailed.xlsx
+++ b/studies/compareModelsDetailed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="606">
   <si>
     <t>Pauwels</t>
   </si>
@@ -323,6 +323,1218 @@
   </si>
   <si>
     <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 33, 48</t>
+  </si>
+  <si>
+    <t>12, 30, 51</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 29, 70</t>
+  </si>
+  <si>
+    <t>9, 24, 53</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>14, 32, 76</t>
+  </si>
+  <si>
+    <t>10, 17, 94</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>8 ± 6</t>
+  </si>
+  <si>
+    <t>8 ± 8</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>7 ± 6</t>
+  </si>
+  <si>
+    <t>6 ± 7</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>Wrapping</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>7, 14, 19</t>
+  </si>
+  <si>
+    <t>11, 14, 32</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>15, 35, 42</t>
+  </si>
+  <si>
+    <t>15, 31, 53</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>12, 25, 70</t>
+  </si>
+  <si>
+    <t>7, 27, 50</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>19, 35, 79</t>
+  </si>
+  <si>
+    <t>9, 21, 97</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 20, 33</t>
+  </si>
+  <si>
+    <t>8, 11, 26</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 16, 38</t>
+  </si>
+  <si>
+    <t>11, 18, 31</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>11, 12, 34</t>
+  </si>
+  <si>
+    <t>11, 13, 34</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>5 (12)</t>
+  </si>
+  <si>
+    <t>11 (9)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-6 (32)</t>
+  </si>
+  <si>
+    <t>-15 (29)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-8 (25)</t>
+  </si>
+  <si>
+    <t>-6 (5)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-5 (25)</t>
+  </si>
+  <si>
+    <t>-9 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-7 (5)</t>
+  </si>
+  <si>
+    <t>-1 (15)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>11 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-9 (14)</t>
+  </si>
+  <si>
+    <t>-1 (23)</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 33, 48</t>
+  </si>
+  <si>
+    <t>12, 30, 51</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 29, 70</t>
+  </si>
+  <si>
+    <t>9, 24, 53</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>14, 32, 76</t>
+  </si>
+  <si>
+    <t>10, 17, 94</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>8 ± 6</t>
+  </si>
+  <si>
+    <t>8 ± 8</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>7 ± 6</t>
+  </si>
+  <si>
+    <t>6 ± 7</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>Wrapping</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>7, 14, 19</t>
+  </si>
+  <si>
+    <t>11, 14, 32</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>15, 35, 42</t>
+  </si>
+  <si>
+    <t>15, 31, 53</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>12, 25, 70</t>
+  </si>
+  <si>
+    <t>7, 27, 50</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>19, 35, 79</t>
+  </si>
+  <si>
+    <t>9, 21, 97</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 20, 33</t>
+  </si>
+  <si>
+    <t>8, 11, 26</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 16, 38</t>
+  </si>
+  <si>
+    <t>11, 18, 31</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>11, 12, 34</t>
+  </si>
+  <si>
+    <t>11, 13, 34</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>5 (12)</t>
+  </si>
+  <si>
+    <t>11 (9)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-6 (32)</t>
+  </si>
+  <si>
+    <t>-15 (29)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-8 (25)</t>
+  </si>
+  <si>
+    <t>-6 (5)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-5 (25)</t>
+  </si>
+  <si>
+    <t>-9 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-7 (5)</t>
+  </si>
+  <si>
+    <t>-1 (15)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>11 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-9 (14)</t>
+  </si>
+  <si>
+    <t>-1 (23)</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 33, 48</t>
+  </si>
+  <si>
+    <t>12, 30, 51</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 29, 70</t>
+  </si>
+  <si>
+    <t>9, 24, 53</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>14, 32, 76</t>
+  </si>
+  <si>
+    <t>10, 17, 94</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>8 ± 6</t>
+  </si>
+  <si>
+    <t>8 ± 8</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>7 ± 6</t>
+  </si>
+  <si>
+    <t>6 ± 7</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>Wrapping</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>7, 14, 19</t>
+  </si>
+  <si>
+    <t>11, 14, 32</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>15, 35, 42</t>
+  </si>
+  <si>
+    <t>15, 31, 53</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>12, 25, 70</t>
+  </si>
+  <si>
+    <t>7, 27, 50</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>19, 35, 79</t>
+  </si>
+  <si>
+    <t>9, 21, 97</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 20, 33</t>
+  </si>
+  <si>
+    <t>8, 11, 26</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 16, 38</t>
+  </si>
+  <si>
+    <t>11, 18, 31</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>11, 12, 34</t>
+  </si>
+  <si>
+    <t>11, 13, 34</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>5 (12)</t>
+  </si>
+  <si>
+    <t>11 (9)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-6 (32)</t>
+  </si>
+  <si>
+    <t>-15 (29)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-8 (25)</t>
+  </si>
+  <si>
+    <t>-6 (5)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-5 (25)</t>
+  </si>
+  <si>
+    <t>-9 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-7 (5)</t>
+  </si>
+  <si>
+    <t>-1 (15)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>11 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-9 (14)</t>
+  </si>
+  <si>
+    <t>-1 (23)</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 33, 48</t>
+  </si>
+  <si>
+    <t>12, 30, 51</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 29, 70</t>
+  </si>
+  <si>
+    <t>9, 24, 53</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>14, 32, 76</t>
+  </si>
+  <si>
+    <t>10, 17, 94</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>8 ± 6</t>
+  </si>
+  <si>
+    <t>8 ± 8</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>7 ± 6</t>
+  </si>
+  <si>
+    <t>6 ± 7</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>Wrapping</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>7, 14, 19</t>
+  </si>
+  <si>
+    <t>11, 14, 32</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>15, 35, 42</t>
+  </si>
+  <si>
+    <t>15, 31, 53</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>12, 25, 70</t>
+  </si>
+  <si>
+    <t>7, 27, 50</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>19, 35, 79</t>
+  </si>
+  <si>
+    <t>9, 21, 97</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 20, 33</t>
+  </si>
+  <si>
+    <t>8, 11, 26</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 16, 38</t>
+  </si>
+  <si>
+    <t>11, 18, 31</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>11, 12, 34</t>
+  </si>
+  <si>
+    <t>11, 13, 34</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>5 (12)</t>
+  </si>
+  <si>
+    <t>11 (9)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-6 (32)</t>
+  </si>
+  <si>
+    <t>-15 (29)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-8 (25)</t>
+  </si>
+  <si>
+    <t>-6 (5)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-5 (25)</t>
+  </si>
+  <si>
+    <t>-9 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-7 (5)</t>
+  </si>
+  <si>
+    <t>-1 (15)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>11 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-9 (14)</t>
+  </si>
+  <si>
+    <t>-1 (23)</t>
   </si>
   <si>
     <t>Pauwels</t>
@@ -657,7 +1869,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -681,15 +1893,23 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,19 +2213,19 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>505</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>514</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>538</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>145</v>
+        <v>549</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1016,112 +2236,112 @@
     <row r="3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>515</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>527</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>539</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>550</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>561</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>166</v>
+        <v>570</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>175</v>
+        <v>579</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>184</v>
+        <v>588</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>193</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>506</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>516</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>528</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>540</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>562</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>167</v>
+        <v>571</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>176</v>
+        <v>580</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>185</v>
+        <v>589</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>194</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>507</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>517</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>529</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>541</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>552</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>159</v>
+        <v>563</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>168</v>
+        <v>572</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>177</v>
+        <v>581</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>186</v>
+        <v>590</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>195</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>518</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>530</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>542</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>553</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1132,112 +2352,112 @@
     <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>531</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>150</v>
+        <v>554</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>573</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>178</v>
+        <v>582</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>187</v>
+        <v>591</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>196</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>509</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>520</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>532</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>555</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>161</v>
+        <v>565</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>574</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>179</v>
+        <v>583</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>592</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>197</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>521</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>533</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>141</v>
+        <v>545</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>556</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>575</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>180</v>
+        <v>584</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>189</v>
+        <v>593</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>198</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>511</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>534</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>546</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
+        <v>557</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1248,95 +2468,95 @@
     <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>547</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>154</v>
+        <v>558</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>163</v>
+        <v>567</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>172</v>
+        <v>576</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>585</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>190</v>
+        <v>594</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>199</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>512</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>536</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>144</v>
+        <v>548</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>559</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>164</v>
+        <v>568</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>173</v>
+        <v>577</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>182</v>
+        <v>586</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>191</v>
+        <v>595</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>200</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>513</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>144</v>
+        <v>548</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>156</v>
+        <v>560</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>165</v>
+        <v>569</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>174</v>
+        <v>578</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>183</v>
+        <v>587</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>192</v>
+        <v>596</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>201</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/studies/compareModelsDetailed.xlsx
+++ b/studies/compareModelsDetailed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,320 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A238C9-0BD1-4AF0-955C-350A262E195D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 33, 48</t>
+  </si>
+  <si>
+    <t>12, 30, 51</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 29, 70</t>
+  </si>
+  <si>
+    <t>9, 24, 53</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>14, 32, 76</t>
+  </si>
+  <si>
+    <t>10, 17, 94</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>8 ± 6</t>
+  </si>
+  <si>
+    <t>8 ± 8</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>7 ± 6</t>
+  </si>
+  <si>
+    <t>6 ± 7</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>Wrapping</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>7, 14, 19</t>
+  </si>
+  <si>
+    <t>11, 14, 32</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>15, 35, 42</t>
+  </si>
+  <si>
+    <t>15, 31, 53</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>12, 25, 70</t>
+  </si>
+  <si>
+    <t>7, 27, 50</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>19, 35, 79</t>
+  </si>
+  <si>
+    <t>9, 21, 97</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 20, 33</t>
+  </si>
+  <si>
+    <t>8, 11, 26</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 16, 38</t>
+  </si>
+  <si>
+    <t>11, 18, 31</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>11, 12, 34</t>
+  </si>
+  <si>
+    <t>11, 13, 34</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>5 (12)</t>
+  </si>
+  <si>
+    <t>11 (9)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-6 (32)</t>
+  </si>
+  <si>
+    <t>-15 (29)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-8 (25)</t>
+  </si>
+  <si>
+    <t>-6 (5)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-5 (25)</t>
+  </si>
+  <si>
+    <t>-9 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-7 (5)</t>
+  </si>
+  <si>
+    <t>-1 (15)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>11 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-9 (14)</t>
+  </si>
+  <si>
+    <t>-1 (23)</t>
+  </si>
   <si>
     <t>Pauwels</t>
   </si>
@@ -354,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,14 +680,16 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,38 +972,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="14" customWidth="true"/>
+    <col min="4" max="4" width="23.28515625" customWidth="true"/>
+    <col min="5" max="5" width="14.85546875" customWidth="true"/>
+    <col min="6" max="6" width="12.42578125" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10.5703125" customWidth="true"/>
+    <col min="11" max="11" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -706,115 +1011,115 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -822,115 +1127,115 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -938,98 +1243,98 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/studies/compareModelsDetailed.xlsx
+++ b/studies/compareModelsDetailed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="303">
   <si>
     <t>Pauwels</t>
   </si>
@@ -344,6 +344,309 @@
   </si>
   <si>
     <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 33, 48</t>
+  </si>
+  <si>
+    <t>12, 30, 51</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>13, 29, 70</t>
+  </si>
+  <si>
+    <t>9, 24, 53</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>MAE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>14, 32, 76</t>
+  </si>
+  <si>
+    <t>10, 17, 94</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>8 ± 6</t>
+  </si>
+  <si>
+    <t>8 ± 8</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>7 ± 6</t>
+  </si>
+  <si>
+    <t>6 ± 7</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>MAPE Mag. [%]</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>RMSE Mag. [%BW]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>StraightLine</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>11, 16, 23</t>
+  </si>
+  <si>
+    <t>10, 14, 41</t>
+  </si>
+  <si>
+    <t>Wrapping</t>
+  </si>
+  <si>
+    <t>MAE PA [%BW]</t>
+  </si>
+  <si>
+    <t>7, 14, 19</t>
+  </si>
+  <si>
+    <t>11, 14, 32</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>15, 35, 42</t>
+  </si>
+  <si>
+    <t>15, 31, 53</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>12, 25, 70</t>
+  </si>
+  <si>
+    <t>7, 27, 50</t>
+  </si>
+  <si>
+    <t>MAE IS [%BW]</t>
+  </si>
+  <si>
+    <t>19, 35, 79</t>
+  </si>
+  <si>
+    <t>9, 21, 97</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 20, 33</t>
+  </si>
+  <si>
+    <t>8, 11, 26</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>8, 16, 38</t>
+  </si>
+  <si>
+    <t>11, 18, 31</t>
+  </si>
+  <si>
+    <t>MAE ML [%BW]</t>
+  </si>
+  <si>
+    <t>11, 12, 34</t>
+  </si>
+  <si>
+    <t>11, 13, 34</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>10 (12)</t>
+  </si>
+  <si>
+    <t>ME PA [%BW]</t>
+  </si>
+  <si>
+    <t>5 (12)</t>
+  </si>
+  <si>
+    <t>11 (9)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-6 (32)</t>
+  </si>
+  <si>
+    <t>-15 (29)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-8 (25)</t>
+  </si>
+  <si>
+    <t>-6 (5)</t>
+  </si>
+  <si>
+    <t>ME IS [%BW]</t>
+  </si>
+  <si>
+    <t>-5 (25)</t>
+  </si>
+  <si>
+    <t>-9 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-7 (5)</t>
+  </si>
+  <si>
+    <t>-1 (15)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>11 (16)</t>
+  </si>
+  <si>
+    <t>ME ML [%BW]</t>
+  </si>
+  <si>
+    <t>-9 (14)</t>
+  </si>
+  <si>
+    <t>-1 (23)</t>
+  </si>
+  <si>
+    <t>Pauwels2021</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>Debrunner2021</t>
+  </si>
+  <si>
+    <t>OneLeggedStance</t>
+  </si>
+  <si>
+    <t>LevelWalking</t>
+  </si>
+  <si>
+    <t>mediTEC2021</t>
   </si>
   <si>
     <t>OneLeggedStance</t>
@@ -657,7 +960,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -681,15 +984,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,19 +1296,19 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1014,112 +1319,112 @@
     <row r="3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1130,112 +1435,112 @@
     <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>198</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1246,95 +1551,95 @@
     <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
